--- a/HybridRediff/Files/PortfolioSuite.xlsx
+++ b/HybridRediff/Files/PortfolioSuite.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529233D3-870D-4783-8ED8-99B7BB42F240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A6BC1-7C57-46D8-9AD8-9C3F4A57A932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +998,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
